--- a/me/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong.xlsx
+++ b/me/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BF9D48-262B-8D48-9A0D-655CA4EAFFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDD68A8-B9B4-C445-8EDB-7A43D2214307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="980" windowWidth="29820" windowHeight="18660" xr2:uid="{75036E14-3E0C-CA4B-BD00-0CC048259C31}"/>
+    <workbookView xWindow="2120" yWindow="980" windowWidth="31700" windowHeight="18660" activeTab="1" xr2:uid="{75036E14-3E0C-CA4B-BD00-0CC048259C31}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Class" sheetId="1" r:id="rId1"/>
+    <sheet name="Init" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="99">
   <si>
     <t>構成</t>
   </si>
@@ -292,6 +293,86 @@
   </si>
   <si>
     <t>str</t>
+  </si>
+  <si>
+    <t>02_init.py</t>
+  </si>
+  <si>
+    <t>python/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong/02_init.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    school = "hust"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def __init__(self, paramName, paramAge):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.name   = paramName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.age    = paramAge</t>
+  </si>
+  <si>
+    <t>x  = Student(paramName="quangvu", paramAge=18)</t>
+  </si>
+  <si>
+    <t>print(x.age)</t>
+  </si>
+  <si>
+    <t>print(x.name)</t>
+  </si>
+  <si>
+    <t>print(x.school)</t>
+  </si>
+  <si>
+    <t>y  = Student("haiyen", 1)</t>
+  </si>
+  <si>
+    <t>print(y.age)</t>
+  </si>
+  <si>
+    <t>print(y.name)</t>
+  </si>
+  <si>
+    <t>print(y.school)</t>
+  </si>
+  <si>
+    <t>python3 02_init.py</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tương tự như hàm khởi tạo __construct trong PHP, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vai trò chính là class Student</t>
+    </r>
+  </si>
+  <si>
+    <t>Thuộc tính chung của các đối tượng</t>
+  </si>
+  <si>
+    <t>quangvu</t>
+  </si>
+  <si>
+    <t>hust</t>
+  </si>
+  <si>
+    <t>haiyen</t>
   </si>
 </sst>
 </file>
@@ -441,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -454,18 +535,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,6 +747,267 @@
         <a:xfrm flipH="1">
           <a:off x="2387600" y="15829280"/>
           <a:ext cx="1788160" cy="1889760"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91439</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>410892</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97BEBCA3-BAF7-3E2B-D5D3-B458A1F66362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914399" y="18582640"/>
+          <a:ext cx="11840893" cy="1798320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB303B61-107A-D571-8FBC-78A0A914A1EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="883920" y="14599920"/>
+          <a:ext cx="6512560" cy="924560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>71120</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B17831-1770-EDBC-5040-06EB377350B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="894080" y="14610080"/>
+          <a:ext cx="6522720" cy="1930400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>538480</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>71120</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{842CA629-D759-89AA-F668-EEC9585BE437}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1361440" y="14589760"/>
+          <a:ext cx="355600" cy="1554480"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>132080</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59B28382-FCF3-68D5-CF0D-0201E32C7C5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1554480" y="14599920"/>
+          <a:ext cx="223520" cy="2753360"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -990,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135C1D45-32D7-284A-881C-B1017FDC58F0}">
   <dimension ref="A3:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView topLeftCell="A59" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1413,10 +1758,9 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="12" t="s">
+      <c r="C38" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="12"/>
       <c r="E38" s="1"/>
       <c r="F38" s="6"/>
       <c r="G38" s="1"/>
@@ -1425,8 +1769,7 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12" t="s">
+      <c r="D39" t="s">
         <v>38</v>
       </c>
       <c r="E39" s="1"/>
@@ -1437,8 +1780,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12" t="s">
+      <c r="D40" t="s">
         <v>39</v>
       </c>
       <c r="E40" s="1"/>
@@ -1449,8 +1791,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12" t="s">
+      <c r="D41" t="s">
         <v>40</v>
       </c>
       <c r="E41" s="1"/>
@@ -1754,23 +2095,22 @@
       <c r="H66" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="15"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="14"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="18"/>
+      <c r="D71" s="16"/>
       <c r="E71" t="s">
         <v>36</v>
       </c>
@@ -1779,37 +2119,32 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B72" s="16"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="18"/>
+      <c r="B72" s="15"/>
+      <c r="D72" s="16"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="18"/>
+      <c r="D73" s="16"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="18"/>
+      <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="18"/>
+      <c r="D75" s="16"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="18"/>
+      <c r="D76" s="16"/>
       <c r="E76" t="s">
         <v>36</v>
       </c>
@@ -1818,11 +2153,10 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="18"/>
+      <c r="D77" s="16"/>
       <c r="E77" t="s">
         <v>36</v>
       </c>
@@ -1831,11 +2165,10 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="18"/>
+      <c r="D78" s="16"/>
       <c r="E78" t="s">
         <v>36</v>
       </c>
@@ -1844,157 +2177,1275 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="21"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="19"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="14"/>
-      <c r="N82" s="15"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="14"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="16"/>
-      <c r="B83" s="17" t="s">
+      <c r="A83" s="15"/>
+      <c r="B83" t="s">
         <v>76</v>
       </c>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="18"/>
+      <c r="N83" s="16"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="16"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="18"/>
+      <c r="A84" s="15"/>
+      <c r="N84" s="16"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="16"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="18"/>
+      <c r="A85" s="15"/>
+      <c r="N85" s="16"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="16"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="18"/>
+      <c r="A86" s="15"/>
+      <c r="N86" s="16"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="16"/>
+      <c r="A87" s="15"/>
+      <c r="N87" s="16"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="15"/>
+      <c r="N88" s="16"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="15"/>
+      <c r="N89" s="16"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="17"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949A5A79-3F64-1843-AD90-38C80828D766}">
+  <dimension ref="A3:P101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5"/>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1"/>
+      <c r="D49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+      <c r="D50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1"/>
+      <c r="D51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="5"/>
+      <c r="C65" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="5"/>
+      <c r="C66" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="14"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B73" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B74" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="16"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="16"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="15"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="16"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="16"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" s="24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B80" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B81" s="15"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="16"/>
+      <c r="H81" s="24"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B82" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="16"/>
+      <c r="H82" s="24"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B83" s="15"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="16"/>
+      <c r="H83" s="24"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B84" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H84" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B85" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H85" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B86" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H86" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="18"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="16"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="18"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="16"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="18"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="19"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="20"/>
-      <c r="K90" s="20"/>
-      <c r="L90" s="20"/>
-      <c r="M90" s="20"/>
-      <c r="N90" s="21"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="19"/>
+      <c r="H87" s="24"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="14"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A91" s="15"/>
+      <c r="B91" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="16"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A92" s="15"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="23"/>
+      <c r="M92" s="23"/>
+      <c r="N92" s="23"/>
+      <c r="O92" s="23"/>
+      <c r="P92" s="16"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A93" s="15"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="23"/>
+      <c r="M93" s="23"/>
+      <c r="N93" s="23"/>
+      <c r="O93" s="23"/>
+      <c r="P93" s="16"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94" s="15"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="23"/>
+      <c r="L94" s="23"/>
+      <c r="M94" s="23"/>
+      <c r="N94" s="23"/>
+      <c r="O94" s="23"/>
+      <c r="P94" s="16"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A95" s="15"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="23"/>
+      <c r="M95" s="23"/>
+      <c r="N95" s="23"/>
+      <c r="O95" s="23"/>
+      <c r="P95" s="16"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A96" s="15"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="23"/>
+      <c r="M96" s="23"/>
+      <c r="N96" s="23"/>
+      <c r="O96" s="23"/>
+      <c r="P96" s="16"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A97" s="15"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="23"/>
+      <c r="M97" s="23"/>
+      <c r="N97" s="23"/>
+      <c r="O97" s="23"/>
+      <c r="P97" s="16"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A98" s="15"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="23"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="23"/>
+      <c r="M98" s="23"/>
+      <c r="N98" s="23"/>
+      <c r="O98" s="23"/>
+      <c r="P98" s="16"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99" s="15"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="23"/>
+      <c r="L99" s="23"/>
+      <c r="M99" s="23"/>
+      <c r="N99" s="23"/>
+      <c r="O99" s="23"/>
+      <c r="P99" s="16"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100" s="15"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="23"/>
+      <c r="K100" s="23"/>
+      <c r="L100" s="23"/>
+      <c r="M100" s="23"/>
+      <c r="N100" s="23"/>
+      <c r="O100" s="23"/>
+      <c r="P100" s="16"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A101" s="17"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="18"/>
+      <c r="O101" s="18"/>
+      <c r="P101" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/me/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong.xlsx
+++ b/me/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDD68A8-B9B4-C445-8EDB-7A43D2214307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593BFBBC-B143-1844-BEC5-6E7B80122194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="980" windowWidth="31700" windowHeight="18660" activeTab="1" xr2:uid="{75036E14-3E0C-CA4B-BD00-0CC048259C31}"/>
+    <workbookView xWindow="2120" yWindow="980" windowWidth="31700" windowHeight="18660" activeTab="2" xr2:uid="{75036E14-3E0C-CA4B-BD00-0CC048259C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
     <sheet name="Init" sheetId="2" r:id="rId2"/>
+    <sheet name="Func" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="116">
   <si>
     <t>構成</t>
   </si>
@@ -373,6 +374,67 @@
   </si>
   <si>
     <t>haiyen</t>
+  </si>
+  <si>
+    <t>03_func.py</t>
+  </si>
+  <si>
+    <t>python/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong/03_func.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def __init__(self, name, age):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.name = name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.age = age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def showInfo(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print("Name: {name} - Age: {age}".format(name = self.name, age = self.age))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def showInfoHello(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print("Hello")</t>
+  </si>
+  <si>
+    <t>x  = Student(name="quangvu", age=18)</t>
+  </si>
+  <si>
+    <t>x.showInfo()</t>
+  </si>
+  <si>
+    <t>x.showInfoHello()</t>
+  </si>
+  <si>
+    <t>Cần truyền vào self bởi vì trong phương thức in ra thông tin của đối tượng(tên và tuổi)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi xây dựng 1 method thì bắt buộc phải truyền </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>self</t>
+    </r>
+  </si>
+  <si>
+    <t>Name: quangvu - Age: 18</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>python3 03_func.py</t>
   </si>
 </sst>
 </file>
@@ -545,11 +607,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1036,6 +1098,267 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749905</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>810381</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>96762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61CE50EC-FF8D-4441-52DA-FEEFDC796F43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4862286" y="16002000"/>
+          <a:ext cx="7462762" cy="133048"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>36286</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>181428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>483809</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>157238</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B641C0-F2F4-9CDE-319C-F35C0428ACE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5793619" y="16014095"/>
+          <a:ext cx="7027333" cy="181429"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>72571</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>72572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>403910</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>12095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B8761B1-B09A-5F8F-D137-D161FFBAA95F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895047" y="18783905"/>
+          <a:ext cx="12668482" cy="1173238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628953</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>157238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>24190</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>96762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894C4FC2-22DD-4591-031C-0ECB777312B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1451429" y="16195524"/>
+          <a:ext cx="5152571" cy="1173238"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>387048</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>181428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>24190</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1371E2EF-E7E0-0361-867D-DBF9EFB094E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2032000" y="16836571"/>
+          <a:ext cx="4572000" cy="749905"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2256,8 +2579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949A5A79-3F64-1843-AD90-38C80828D766}">
   <dimension ref="A3:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2734,7 +3057,7 @@
       <c r="A43" s="1"/>
       <c r="B43" s="5"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="22" t="s">
+      <c r="D43" t="s">
         <v>64</v>
       </c>
       <c r="E43" s="1"/>
@@ -3043,9 +3366,6 @@
       <c r="B72" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
       <c r="F72" s="16"/>
       <c r="G72" s="1" t="s">
         <v>36</v>
@@ -3058,9 +3378,6 @@
       <c r="B73" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
       <c r="F73" s="16"/>
       <c r="G73" s="1" t="s">
         <v>36</v>
@@ -3073,48 +3390,33 @@
       <c r="B74" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
       <c r="F74" s="16"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B75" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
       <c r="F75" s="16"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B76" s="15"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
       <c r="F76" s="16"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
       <c r="F77" s="16"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
       <c r="F78" s="16"/>
       <c r="G78" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H78" s="24">
+      <c r="H78" s="22">
         <v>18</v>
       </c>
     </row>
@@ -3122,14 +3424,11 @@
       <c r="B79" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
       <c r="F79" s="16"/>
       <c r="G79" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H79" s="24" t="s">
+      <c r="H79" s="22" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3137,55 +3436,40 @@
       <c r="B80" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
       <c r="F80" s="16"/>
       <c r="G80" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H80" s="24" t="s">
+      <c r="H80" s="22" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B81" s="15"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
       <c r="F81" s="16"/>
-      <c r="H81" s="24"/>
+      <c r="H81" s="22"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B82" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
       <c r="F82" s="16"/>
-      <c r="H82" s="24"/>
+      <c r="H82" s="22"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B83" s="15"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
       <c r="F83" s="16"/>
-      <c r="H83" s="24"/>
+      <c r="H83" s="22"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B84" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
       <c r="F84" s="16"/>
       <c r="G84" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H84" s="24">
+      <c r="H84" s="22">
         <v>1</v>
       </c>
     </row>
@@ -3193,14 +3477,11 @@
       <c r="B85" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
       <c r="F85" s="16"/>
       <c r="G85" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H85" s="24" t="s">
+      <c r="H85" s="22" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3208,14 +3489,11 @@
       <c r="B86" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
       <c r="F86" s="16"/>
       <c r="G86" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H86" s="24" t="s">
+      <c r="H86" s="22" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3225,7 +3503,7 @@
       <c r="D87" s="18"/>
       <c r="E87" s="18"/>
       <c r="F87" s="19"/>
-      <c r="H87" s="24"/>
+      <c r="H87" s="22"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
@@ -3249,184 +3527,45 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
-      <c r="B91" s="23" t="s">
+      <c r="B91" t="s">
         <v>93</v>
       </c>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="23"/>
-      <c r="M91" s="23"/>
-      <c r="N91" s="23"/>
-      <c r="O91" s="23"/>
       <c r="P91" s="16"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="15"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="23"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="23"/>
-      <c r="M92" s="23"/>
-      <c r="N92" s="23"/>
-      <c r="O92" s="23"/>
       <c r="P92" s="16"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
-      <c r="J93" s="23"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="23"/>
-      <c r="M93" s="23"/>
-      <c r="N93" s="23"/>
-      <c r="O93" s="23"/>
       <c r="P93" s="16"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="15"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
-      <c r="J94" s="23"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="23"/>
-      <c r="M94" s="23"/>
-      <c r="N94" s="23"/>
-      <c r="O94" s="23"/>
       <c r="P94" s="16"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="15"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="23"/>
-      <c r="J95" s="23"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="23"/>
-      <c r="M95" s="23"/>
-      <c r="N95" s="23"/>
-      <c r="O95" s="23"/>
       <c r="P95" s="16"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23"/>
-      <c r="J96" s="23"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="23"/>
-      <c r="M96" s="23"/>
-      <c r="N96" s="23"/>
-      <c r="O96" s="23"/>
       <c r="P96" s="16"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="23"/>
-      <c r="J97" s="23"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="23"/>
-      <c r="M97" s="23"/>
-      <c r="N97" s="23"/>
-      <c r="O97" s="23"/>
       <c r="P97" s="16"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="23"/>
-      <c r="J98" s="23"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="23"/>
-      <c r="M98" s="23"/>
-      <c r="N98" s="23"/>
-      <c r="O98" s="23"/>
       <c r="P98" s="16"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
-      <c r="I99" s="23"/>
-      <c r="J99" s="23"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="23"/>
-      <c r="M99" s="23"/>
-      <c r="N99" s="23"/>
-      <c r="O99" s="23"/>
       <c r="P99" s="16"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="15"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="23"/>
-      <c r="J100" s="23"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="23"/>
-      <c r="M100" s="23"/>
-      <c r="N100" s="23"/>
-      <c r="O100" s="23"/>
       <c r="P100" s="16"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
@@ -3451,4 +3590,1165 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9ADFDA8-C79E-CF44-BB41-94318244FEF7}">
+  <dimension ref="A3:Q98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="105" workbookViewId="0">
+      <selection activeCell="M84" sqref="M84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5"/>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1"/>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1"/>
+      <c r="D51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1"/>
+      <c r="D52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="5"/>
+      <c r="C66" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="5"/>
+      <c r="C67" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B72" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="14"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B73" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="16"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B74" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="16"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B75" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="16"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B76" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="16"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B77" s="15"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="16"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B78" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B79" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="16"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B80" s="15"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="16"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B81" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B82" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="16"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B83" s="15"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="16"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B84" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="16"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B85" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B86" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B87" s="17"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="19"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A90" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="14"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A91" s="15"/>
+      <c r="B91" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="24"/>
+      <c r="Q91" s="16"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A92" s="15"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="24"/>
+      <c r="O92" s="24"/>
+      <c r="P92" s="24"/>
+      <c r="Q92" s="16"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A93" s="15"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="24"/>
+      <c r="O93" s="24"/>
+      <c r="P93" s="24"/>
+      <c r="Q93" s="16"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A94" s="15"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="24"/>
+      <c r="O94" s="24"/>
+      <c r="P94" s="24"/>
+      <c r="Q94" s="16"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A95" s="15"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="24"/>
+      <c r="O95" s="24"/>
+      <c r="P95" s="24"/>
+      <c r="Q95" s="16"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A96" s="15"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="24"/>
+      <c r="O96" s="24"/>
+      <c r="P96" s="24"/>
+      <c r="Q96" s="16"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A97" s="15"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="24"/>
+      <c r="O97" s="24"/>
+      <c r="P97" s="24"/>
+      <c r="Q97" s="16"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A98" s="17"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="18"/>
+      <c r="O98" s="18"/>
+      <c r="P98" s="18"/>
+      <c r="Q98" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong.xlsx
+++ b/me/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593BFBBC-B143-1844-BEC5-6E7B80122194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D81253-1B36-4A49-B773-827B57FBA96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="980" windowWidth="31700" windowHeight="18660" activeTab="2" xr2:uid="{75036E14-3E0C-CA4B-BD00-0CC048259C31}"/>
+    <workbookView xWindow="2120" yWindow="980" windowWidth="31700" windowHeight="18660" activeTab="3" xr2:uid="{75036E14-3E0C-CA4B-BD00-0CC048259C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
     <sheet name="Init" sheetId="2" r:id="rId2"/>
     <sheet name="Func" sheetId="3" r:id="rId3"/>
+    <sheet name="set" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="125">
   <si>
     <t>構成</t>
   </si>
@@ -435,6 +436,33 @@
   </si>
   <si>
     <t>python3 03_func.py</t>
+  </si>
+  <si>
+    <t>04_set.py</t>
+  </si>
+  <si>
+    <t>python/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong/04_set.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def setAge(self, age):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def getAge(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return self.age</t>
+  </si>
+  <si>
+    <t>print(x.getAge())</t>
+  </si>
+  <si>
+    <t>python3 04_set.py</t>
+  </si>
+  <si>
+    <t>Đối với lập trình hướng đối tượng thì khi thay đổi gía trị thuộc tính nào đó thì nên dùng phương thức set như thế này để thay đổi</t>
+  </si>
+  <si>
+    <t>Khi lấy giá trị của 1 thuộc tính nào đó thì nên lấy thông qua phương thức get như thế này</t>
   </si>
 </sst>
 </file>
@@ -584,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -610,8 +638,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1359,6 +1385,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>90714</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>72572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371736</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>18143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2232B380-6FFC-266F-1009-0C6670BB72CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="916214" y="19031858"/>
+          <a:ext cx="10187022" cy="943428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3596,8 +3671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9ADFDA8-C79E-CF44-BB41-94318244FEF7}">
   <dimension ref="A3:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="105" workbookViewId="0">
-      <selection activeCell="M84" sqref="M84"/>
+    <sheetView zoomScale="105" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4084,7 +4159,7 @@
       <c r="A44" s="1"/>
       <c r="B44" s="5"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="23" t="s">
+      <c r="D44" t="s">
         <v>79</v>
       </c>
       <c r="E44" s="1"/>
@@ -4395,64 +4470,34 @@
       <c r="B73" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
       <c r="H73" s="16"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B74" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
       <c r="H74" s="16"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B75" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
       <c r="H75" s="16"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B76" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
       <c r="H76" s="16"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B77" s="15"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
       <c r="H77" s="16"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B78" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
       <c r="H78" s="16"/>
       <c r="I78" s="1" t="s">
         <v>36</v>
@@ -4465,31 +4510,16 @@
       <c r="B79" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
       <c r="H79" s="16"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B80" s="15"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
       <c r="H80" s="16"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B81" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
       <c r="H81" s="16"/>
       <c r="I81" s="1" t="s">
         <v>36</v>
@@ -4502,42 +4532,22 @@
       <c r="B82" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
       <c r="H82" s="16"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B83" s="15"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
       <c r="H83" s="16"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B84" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
       <c r="H84" s="16"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B85" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
       <c r="H85" s="16"/>
       <c r="I85" s="1" t="s">
         <v>36</v>
@@ -4550,11 +4560,6 @@
       <c r="B86" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
       <c r="H86" s="16"/>
       <c r="I86" s="1" t="s">
         <v>36</v>
@@ -4595,137 +4600,33 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
-      <c r="B91" s="24" t="s">
+      <c r="B91" t="s">
         <v>115</v>
       </c>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="24"/>
-      <c r="M91" s="24"/>
-      <c r="N91" s="24"/>
-      <c r="O91" s="24"/>
-      <c r="P91" s="24"/>
       <c r="Q91" s="16"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="15"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24"/>
-      <c r="K92" s="24"/>
-      <c r="L92" s="24"/>
-      <c r="M92" s="24"/>
-      <c r="N92" s="24"/>
-      <c r="O92" s="24"/>
-      <c r="P92" s="24"/>
       <c r="Q92" s="16"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="24"/>
-      <c r="K93" s="24"/>
-      <c r="L93" s="24"/>
-      <c r="M93" s="24"/>
-      <c r="N93" s="24"/>
-      <c r="O93" s="24"/>
-      <c r="P93" s="24"/>
       <c r="Q93" s="16"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="15"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="24"/>
-      <c r="N94" s="24"/>
-      <c r="O94" s="24"/>
-      <c r="P94" s="24"/>
       <c r="Q94" s="16"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="15"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="24"/>
-      <c r="N95" s="24"/>
-      <c r="O95" s="24"/>
-      <c r="P95" s="24"/>
       <c r="Q95" s="16"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="24"/>
-      <c r="N96" s="24"/>
-      <c r="O96" s="24"/>
-      <c r="P96" s="24"/>
       <c r="Q96" s="16"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="24"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
-      <c r="M97" s="24"/>
-      <c r="N97" s="24"/>
-      <c r="O97" s="24"/>
-      <c r="P97" s="24"/>
       <c r="Q97" s="16"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
@@ -4751,4 +4652,995 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7558B0D-6495-C244-967A-6E7B5812A8AB}">
+  <dimension ref="A3:N101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="140" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5"/>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1"/>
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1"/>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1"/>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="5"/>
+      <c r="C67" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="5"/>
+      <c r="C68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B73" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="14"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B74" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H74" s="16"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H75" s="16"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H76" s="16"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H77" s="16"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="15"/>
+      <c r="H78" s="16"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H79" s="16"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B80" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H80" s="16"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B81" s="15"/>
+      <c r="H81" s="16"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B82" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H82" s="16"/>
+      <c r="I82" t="s">
+        <v>36</v>
+      </c>
+      <c r="J82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B83" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H83" s="16"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B84" s="15"/>
+      <c r="H84" s="16"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B85" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H85" s="16"/>
+      <c r="I85" t="s">
+        <v>36</v>
+      </c>
+      <c r="J85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B86" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H86" s="16"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B87" s="15"/>
+      <c r="H87" s="16"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B88" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H88" s="16"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B89" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H89" s="16"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B90" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H90" s="16"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B91" s="17"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="19"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="14"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="15"/>
+      <c r="B95" t="s">
+        <v>122</v>
+      </c>
+      <c r="N95" s="16"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" s="15"/>
+      <c r="N96" s="16"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" s="15"/>
+      <c r="N97" s="16"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98" s="15"/>
+      <c r="N98" s="16"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" s="15"/>
+      <c r="N99" s="16"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100" s="15"/>
+      <c r="N100" s="16"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" s="17"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong.xlsx
+++ b/me/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D81253-1B36-4A49-B773-827B57FBA96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC51F72-45B3-AE4B-8EAE-FE28967FC7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="980" windowWidth="31700" windowHeight="18660" activeTab="3" xr2:uid="{75036E14-3E0C-CA4B-BD00-0CC048259C31}"/>
+    <workbookView xWindow="2220" yWindow="1500" windowWidth="31700" windowHeight="18660" activeTab="4" xr2:uid="{75036E14-3E0C-CA4B-BD00-0CC048259C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
     <sheet name="Init" sheetId="2" r:id="rId2"/>
     <sheet name="Func" sheetId="3" r:id="rId3"/>
     <sheet name="set" sheetId="4" r:id="rId4"/>
+    <sheet name="Inheritance" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="145">
   <si>
     <t>構成</t>
   </si>
@@ -463,6 +464,76 @@
   </si>
   <si>
     <t>Khi lấy giá trị của 1 thuộc tính nào đó thì nên lấy thông qua phương thức get như thế này</t>
+  </si>
+  <si>
+    <t>05_inheritance.py</t>
+  </si>
+  <si>
+    <t>python/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong/05_inheritance.py</t>
+  </si>
+  <si>
+    <t>class People():</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print("People __init__" )</t>
+  </si>
+  <si>
+    <t>class Student(People):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def __init__(self, name, age, school):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        People.__init__(self, name, age)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.school = school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print("Student __init__" )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        People.showInfo(self)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print("school: {school}".format(school = self.school))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def setSchool(self, school):</t>
+  </si>
+  <si>
+    <t>x  = Student(name="quang", age=18, school="hust")</t>
+  </si>
+  <si>
+    <t>Student kế thừa từ People</t>
+  </si>
+  <si>
+    <t>Student được kế thừa từ People nên có thể tận dụng được __init__() của con người</t>
+  </si>
+  <si>
+    <t>x.setSchool("hust.com")</t>
+  </si>
+  <si>
+    <t>python3 05_inheritance.py</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Peple có name và age nhưng đối với Student thì có thêm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>school</t>
+    </r>
+  </si>
+  <si>
+    <t>Override lại phương thức showInfo()</t>
   </si>
 </sst>
 </file>
@@ -612,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -638,6 +709,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1434,6 +1507,484 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>436815</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>169872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>121338</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>88981</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E346F4-C05F-47BD-0DB3-D9FADF571173}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1261911" y="14932611"/>
+          <a:ext cx="509618" cy="2548090"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>202229</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>137516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582420</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>88981</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{185E65C4-424E-BB67-EBCC-71F2A759E6DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2677516" y="17933694"/>
+          <a:ext cx="5330764" cy="153695"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558152</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>161784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>347835</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>161783</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{036BBCB3-CE74-6438-D2E6-49B8FF525B03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3033439" y="17957962"/>
+          <a:ext cx="5565351" cy="202229"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114531</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>64714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>108207</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>48535</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157898DC-823D-B619-1A62-3D49E2601ECE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="939627" y="22107708"/>
+          <a:ext cx="9069726" cy="1601655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>436815</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>177962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>242675</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>97070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F32E88E1-C7DA-2397-F508-7FA50F394AC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1261911" y="16356306"/>
+          <a:ext cx="630955" cy="2750318"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>582420</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>186051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>760382</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>105159</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06FE6037-6761-0895-5881-6DF4D6B3F874}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1407516" y="18588917"/>
+          <a:ext cx="1003057" cy="4165924"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>469172</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>177962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>210319</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>186050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D5732C-DDE9-B4CC-0EB5-03A0A0D9EB1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1294268" y="15547389"/>
+          <a:ext cx="566242" cy="7086113"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>250764</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>161783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323566</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>80892</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F1CFD2-CA3D-A4D2-D81A-35E4D16792E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1075860" y="20384713"/>
+          <a:ext cx="72802" cy="2143631"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428726</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>186051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>469172</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>97070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0297A9F-DFE6-C06B-FB34-7523ECDEACEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1253822" y="19802293"/>
+          <a:ext cx="40446" cy="922166"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4658,8 +5209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7558B0D-6495-C244-967A-6E7B5812A8AB}">
   <dimension ref="A3:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="140" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+    <sheetView topLeftCell="A76" zoomScale="140" workbookViewId="0">
+      <selection activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5562,12 +6113,24 @@
         <v>109</v>
       </c>
       <c r="H89" s="16"/>
+      <c r="I89" t="s">
+        <v>36</v>
+      </c>
+      <c r="J89" s="22" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B90" s="15" t="s">
         <v>121</v>
       </c>
       <c r="H90" s="16"/>
+      <c r="I90" t="s">
+        <v>36</v>
+      </c>
+      <c r="J90" s="22">
+        <v>18</v>
+      </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B91" s="17"/>
@@ -5643,4 +6206,1350 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B2A3B7-B818-6741-84E1-96AFA71B39FA}">
+  <dimension ref="A3:M118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="157" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5"/>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+      <c r="D50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1"/>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1"/>
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1"/>
+      <c r="D54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="5"/>
+      <c r="C68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="5"/>
+      <c r="C69" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B74" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="14"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="16"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="16"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="16"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="16"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="16"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B80" s="15"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="16"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B81" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="16"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B82" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="16"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B83" s="15"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="16"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B84" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="16"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B85" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="16"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B86" s="15"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="16"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B87" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J87" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B88" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="16"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B89" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B90" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J90" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B91" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="16"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B92" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="16"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B93" s="15"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="16"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B94" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J94" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B95" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B96" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="16"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B97" s="15"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="16"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B98" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="16"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B99" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="16"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B100" s="15"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="16"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B101" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="16"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B102" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="16"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B103" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="16"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B104" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="16"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B105" s="17"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="19"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="14"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109" s="15"/>
+      <c r="B109" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+      <c r="I109" s="24"/>
+      <c r="J109" s="24"/>
+      <c r="K109" s="24"/>
+      <c r="L109" s="24"/>
+      <c r="M109" s="16"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" s="15"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="24"/>
+      <c r="J110" s="24"/>
+      <c r="K110" s="24"/>
+      <c r="L110" s="24"/>
+      <c r="M110" s="16"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" s="15"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
+      <c r="M111" s="16"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" s="15"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
+      <c r="I112" s="24"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="24"/>
+      <c r="L112" s="24"/>
+      <c r="M112" s="16"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A113" s="15"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="16"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A114" s="15"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="24"/>
+      <c r="J114" s="24"/>
+      <c r="K114" s="24"/>
+      <c r="L114" s="24"/>
+      <c r="M114" s="16"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" s="15"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="24"/>
+      <c r="L115" s="24"/>
+      <c r="M115" s="16"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" s="15"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="24"/>
+      <c r="J116" s="24"/>
+      <c r="K116" s="24"/>
+      <c r="L116" s="24"/>
+      <c r="M116" s="16"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" s="15"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24"/>
+      <c r="K117" s="24"/>
+      <c r="L117" s="24"/>
+      <c r="M117" s="16"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118" s="17"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="18"/>
+      <c r="L118" s="18"/>
+      <c r="M118" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong.xlsx
+++ b/me/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC51F72-45B3-AE4B-8EAE-FE28967FC7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1885CC7B-CB56-2248-805B-C5151AC0D40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1500" windowWidth="31700" windowHeight="18660" activeTab="4" xr2:uid="{75036E14-3E0C-CA4B-BD00-0CC048259C31}"/>
+    <workbookView xWindow="2220" yWindow="1500" windowWidth="31700" windowHeight="18660" activeTab="5" xr2:uid="{75036E14-3E0C-CA4B-BD00-0CC048259C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Func" sheetId="3" r:id="rId3"/>
     <sheet name="set" sheetId="4" r:id="rId4"/>
     <sheet name="Inheritance" sheetId="5" r:id="rId5"/>
+    <sheet name="Str" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="156">
   <si>
     <t>構成</t>
   </si>
@@ -534,6 +535,39 @@
   </si>
   <si>
     <t>Override lại phương thức showInfo()</t>
+  </si>
+  <si>
+    <t>06_str.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def __str__(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return  "Name: {name} - Age: {age}".format(name = self.name, age = self.age)</t>
+  </si>
+  <si>
+    <t>x  = Student(name="hailan", age=18)</t>
+  </si>
+  <si>
+    <t>y  = Student(name="haiyen", age=1)</t>
+  </si>
+  <si>
+    <t>print(x)    # in đối tượng __str__</t>
+  </si>
+  <si>
+    <t>print(y)    # in đối tượng __str__</t>
+  </si>
+  <si>
+    <t>Phương thức __str__() này cũng là phương thức có sẵn. Khi dùng hàm print thì nó sẽ tìm trong Class Student phương thức __str__ để gọi</t>
+  </si>
+  <si>
+    <t>quang/python/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong/06_str.py</t>
+  </si>
+  <si>
+    <t>python3 06_str.py</t>
+  </si>
+  <si>
+    <t>Name: haiyen - Age: 1</t>
   </si>
 </sst>
 </file>
@@ -1985,6 +2019,166 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>193040</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0A180D-A7D2-8FFA-29E0-571FA4BBA4BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1066800" y="16845280"/>
+          <a:ext cx="10647680" cy="904240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>111759</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>86966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>318786</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>95914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEFB69EA-44A9-FDB9-5057-ADF8F93327B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="934719" y="19187766"/>
+          <a:ext cx="10905507" cy="1228148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>325120</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62FDA199-3105-6CFB-74FA-D47528954BD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1148080" y="17048480"/>
+          <a:ext cx="518160" cy="2661920"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6212,8 +6406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B2A3B7-B818-6741-84E1-96AFA71B39FA}">
   <dimension ref="A3:M118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="157" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView topLeftCell="A93" zoomScale="157" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6720,7 +6914,7 @@
       <c r="A46" s="1"/>
       <c r="B46" s="5"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="23" t="s">
+      <c r="D46" t="s">
         <v>116</v>
       </c>
       <c r="E46" s="1"/>
@@ -7031,137 +7225,72 @@
       <c r="B75" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
       <c r="H75" s="16"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B76" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
       <c r="H76" s="16"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
       <c r="H77" s="16"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
       <c r="H78" s="16"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B79" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
       <c r="H79" s="16"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B80" s="15"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
       <c r="H80" s="16"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B81" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
       <c r="H81" s="16"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B82" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
       <c r="H82" s="16"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B83" s="15"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
       <c r="H83" s="16"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B84" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
       <c r="H84" s="16"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B85" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
       <c r="H85" s="16"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B86" s="15"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
       <c r="H86" s="16"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B87" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
       <c r="H87" s="16"/>
       <c r="I87" s="1" t="s">
         <v>36</v>
@@ -7174,22 +7303,12 @@
       <c r="B88" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
       <c r="H88" s="16"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B89" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
       <c r="H89" s="16"/>
       <c r="I89" s="1" t="s">
         <v>36</v>
@@ -7202,11 +7321,6 @@
       <c r="B90" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
       <c r="H90" s="16"/>
       <c r="I90" s="1" t="s">
         <v>36</v>
@@ -7219,42 +7333,22 @@
       <c r="B91" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
       <c r="H91" s="16"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B92" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
       <c r="H92" s="16"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B93" s="15"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
       <c r="H93" s="16"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B94" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
       <c r="H94" s="16"/>
       <c r="I94" s="1" t="s">
         <v>36</v>
@@ -7267,11 +7361,6 @@
       <c r="B95" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
       <c r="H95" s="16"/>
       <c r="I95" s="1"/>
     </row>
@@ -7279,95 +7368,50 @@
       <c r="B96" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
       <c r="H96" s="16"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B97" s="15"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
       <c r="H97" s="16"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B98" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
       <c r="H98" s="16"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B99" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
       <c r="H99" s="16"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B100" s="15"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
       <c r="H100" s="16"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B101" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
       <c r="H101" s="16"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B102" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
       <c r="H102" s="16"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B103" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
       <c r="H103" s="16"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B104" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
       <c r="H104" s="16"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -7398,139 +7442,41 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="15"/>
-      <c r="B109" s="24" t="s">
+      <c r="B109" t="s">
         <v>142</v>
       </c>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="24"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="24"/>
-      <c r="K109" s="24"/>
-      <c r="L109" s="24"/>
       <c r="M109" s="16"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="15"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="24"/>
-      <c r="H110" s="24"/>
-      <c r="I110" s="24"/>
-      <c r="J110" s="24"/>
-      <c r="K110" s="24"/>
-      <c r="L110" s="24"/>
       <c r="M110" s="16"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="24"/>
-      <c r="K111" s="24"/>
-      <c r="L111" s="24"/>
       <c r="M111" s="16"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="24"/>
-      <c r="I112" s="24"/>
-      <c r="J112" s="24"/>
-      <c r="K112" s="24"/>
-      <c r="L112" s="24"/>
       <c r="M112" s="16"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="15"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="24"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="24"/>
-      <c r="K113" s="24"/>
-      <c r="L113" s="24"/>
       <c r="M113" s="16"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="15"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="24"/>
-      <c r="I114" s="24"/>
-      <c r="J114" s="24"/>
-      <c r="K114" s="24"/>
-      <c r="L114" s="24"/>
       <c r="M114" s="16"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="15"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="24"/>
-      <c r="K115" s="24"/>
-      <c r="L115" s="24"/>
       <c r="M115" s="16"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="15"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="24"/>
-      <c r="J116" s="24"/>
-      <c r="K116" s="24"/>
-      <c r="L116" s="24"/>
       <c r="M116" s="16"/>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="15"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="24"/>
-      <c r="I117" s="24"/>
-      <c r="J117" s="24"/>
-      <c r="K117" s="24"/>
-      <c r="L117" s="24"/>
       <c r="M117" s="16"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -7552,4 +7498,1169 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE27D832-BDDE-234E-B6B0-4BB11DB05F64}">
+  <dimension ref="A3:O101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5"/>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+      <c r="D46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1"/>
+      <c r="D51" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1"/>
+      <c r="D52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1"/>
+      <c r="D54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1"/>
+      <c r="D55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="5"/>
+      <c r="C69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="5"/>
+      <c r="C70" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="14"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="16"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="15"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="16"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="16"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="16"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B80" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="16"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B81" s="15"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="16"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B82" s="15"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="16"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B83" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="16"/>
+      <c r="I83" t="s">
+        <v>36</v>
+      </c>
+      <c r="J83" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B84" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="16"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B85" s="15"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="16"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B86" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="16"/>
+      <c r="I86" t="s">
+        <v>36</v>
+      </c>
+      <c r="J86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B87" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="16"/>
+      <c r="I87" t="s">
+        <v>36</v>
+      </c>
+      <c r="J87" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B88" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="16"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B89" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="16"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B90" s="17"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="19"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
+      <c r="O93" s="14"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" s="15"/>
+      <c r="B94" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="24"/>
+      <c r="O94" s="16"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" s="15"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="24"/>
+      <c r="O95" s="16"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" s="15"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="24"/>
+      <c r="O96" s="16"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" s="15"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="24"/>
+      <c r="O97" s="16"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="15"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="24"/>
+      <c r="O98" s="16"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" s="15"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="24"/>
+      <c r="O99" s="16"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" s="15"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="24"/>
+      <c r="O100" s="16"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" s="17"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="18"/>
+      <c r="O101" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong.xlsx
+++ b/me/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1885CC7B-CB56-2248-805B-C5151AC0D40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5662BD-33F1-4444-9001-E19FAEF121E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1500" windowWidth="31700" windowHeight="18660" activeTab="5" xr2:uid="{75036E14-3E0C-CA4B-BD00-0CC048259C31}"/>
+    <workbookView xWindow="2220" yWindow="1500" windowWidth="31700" windowHeight="18660" activeTab="6" xr2:uid="{75036E14-3E0C-CA4B-BD00-0CC048259C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="set" sheetId="4" r:id="rId4"/>
     <sheet name="Inheritance" sheetId="5" r:id="rId5"/>
     <sheet name="Str" sheetId="6" r:id="rId6"/>
+    <sheet name="len" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="165">
   <si>
     <t>構成</t>
   </si>
@@ -568,6 +569,33 @@
   </si>
   <si>
     <t>Name: haiyen - Age: 1</t>
+  </si>
+  <si>
+    <t>07_len.py</t>
+  </si>
+  <si>
+    <t>quang/python/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong/07_len.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def __len__(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print(len(x))    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">print(len(y))    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return len(self.name)</t>
+  </si>
+  <si>
+    <t>python3 07_len.py</t>
+  </si>
+  <si>
+    <t>Khi dùng hàm len thì nó sẽ tìm trong Class Student phương thức __len__ này để gọi</t>
+  </si>
+  <si>
+    <t>Đối với chuỗi thì sẽ trả về chiều dài của chuỗi, còn đối với List thì sẽ trả về chiều dài của List</t>
   </si>
 </sst>
 </file>
@@ -2179,6 +2207,108 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{269F011E-1BE3-A240-788F-BFF88E62771D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1280160" y="17007840"/>
+          <a:ext cx="4632960" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>637570</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA7C5A6-E342-05F7-5EEA-4F5FF3913D0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="19395440"/>
+          <a:ext cx="12067570" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7504,8 +7634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE27D832-BDDE-234E-B6B0-4BB11DB05F64}">
   <dimension ref="A3:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView topLeftCell="A64" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8022,7 +8152,7 @@
       <c r="A47" s="1"/>
       <c r="B47" s="5"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="23" t="s">
+      <c r="D47" t="s">
         <v>125</v>
       </c>
       <c r="E47" s="1"/>
@@ -8333,82 +8463,42 @@
       <c r="B76" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
       <c r="H76" s="16"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="15"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
       <c r="H77" s="16"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
       <c r="H78" s="16"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B79" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
       <c r="H79" s="16"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B80" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
       <c r="H80" s="16"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B81" s="15"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
       <c r="H81" s="16"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B82" s="15"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
       <c r="H82" s="16"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B83" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
       <c r="H83" s="16"/>
       <c r="I83" t="s">
         <v>36</v>
@@ -8421,31 +8511,16 @@
       <c r="B84" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
       <c r="H84" s="16"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B85" s="15"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
       <c r="H85" s="16"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B86" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
       <c r="H86" s="16"/>
       <c r="I86" t="s">
         <v>36</v>
@@ -8458,11 +8533,6 @@
       <c r="B87" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
       <c r="H87" s="16"/>
       <c r="I87" t="s">
         <v>36</v>
@@ -8475,22 +8545,12 @@
       <c r="B88" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
       <c r="H88" s="16"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B89" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
       <c r="H89" s="16"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
@@ -8523,123 +8583,33 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="15"/>
-      <c r="B94" s="24" t="s">
+      <c r="B94" t="s">
         <v>154</v>
       </c>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="24"/>
-      <c r="N94" s="24"/>
       <c r="O94" s="16"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="15"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="24"/>
-      <c r="N95" s="24"/>
       <c r="O95" s="16"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="24"/>
-      <c r="N96" s="24"/>
       <c r="O96" s="16"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="24"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
-      <c r="M97" s="24"/>
-      <c r="N97" s="24"/>
       <c r="O97" s="16"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
-      <c r="N98" s="24"/>
       <c r="O98" s="16"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="24"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
-      <c r="M99" s="24"/>
-      <c r="N99" s="24"/>
       <c r="O99" s="16"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="15"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="24"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="24"/>
-      <c r="K100" s="24"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="24"/>
-      <c r="N100" s="24"/>
       <c r="O100" s="16"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
@@ -8663,4 +8633,1152 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9899429-B636-6749-921B-ADDDBAB8E9D9}">
+  <dimension ref="A3:P103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5"/>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+      <c r="D46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1"/>
+      <c r="D52" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1"/>
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1"/>
+      <c r="D55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1"/>
+      <c r="D56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="5"/>
+      <c r="C70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="5"/>
+      <c r="C71" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="14"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="16"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="15"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="16"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="16"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B80" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="16"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B81" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="16"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B82" s="15"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="16"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B83" s="15"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="16"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B84" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="16"/>
+      <c r="F84" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B85" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="16"/>
+      <c r="F85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G85" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B86" s="15"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="16"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B87" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="16"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B88" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="16"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B89" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="16"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B90" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="16"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B91" s="17"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="19"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+      <c r="O94" s="13"/>
+      <c r="P94" s="14"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A95" s="15"/>
+      <c r="B95" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="24"/>
+      <c r="O95" s="24"/>
+      <c r="P95" s="16"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A96" s="15"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="24"/>
+      <c r="O96" s="24"/>
+      <c r="P96" s="16"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A97" s="15"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="24"/>
+      <c r="O97" s="24"/>
+      <c r="P97" s="16"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A98" s="15"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="24"/>
+      <c r="O98" s="24"/>
+      <c r="P98" s="16"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99" s="15"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="24"/>
+      <c r="O99" s="24"/>
+      <c r="P99" s="16"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100" s="15"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="24"/>
+      <c r="O100" s="24"/>
+      <c r="P100" s="16"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A101" s="15"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="24"/>
+      <c r="O101" s="24"/>
+      <c r="P101" s="16"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A102" s="15"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="24"/>
+      <c r="O102" s="24"/>
+      <c r="P102" s="16"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A103" s="17"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="18"/>
+      <c r="N103" s="18"/>
+      <c r="O103" s="18"/>
+      <c r="P103" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong.xlsx
+++ b/me/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5662BD-33F1-4444-9001-E19FAEF121E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07387429-E5B2-A648-99FF-2E9AAE38B574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1500" windowWidth="31700" windowHeight="18660" activeTab="6" xr2:uid="{75036E14-3E0C-CA4B-BD00-0CC048259C31}"/>
+    <workbookView xWindow="2220" yWindow="1500" windowWidth="31700" windowHeight="18660" activeTab="7" xr2:uid="{75036E14-3E0C-CA4B-BD00-0CC048259C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Inheritance" sheetId="5" r:id="rId5"/>
     <sheet name="Str" sheetId="6" r:id="rId6"/>
     <sheet name="len" sheetId="7" r:id="rId7"/>
+    <sheet name="del" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="179">
   <si>
     <t>構成</t>
   </si>
@@ -596,6 +597,48 @@
   </si>
   <si>
     <t>Đối với chuỗi thì sẽ trả về chiều dài của chuỗi, còn đối với List thì sẽ trả về chiều dài của List</t>
+  </si>
+  <si>
+    <t>08_del.py</t>
+  </si>
+  <si>
+    <t>python/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong/08_del.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def __del__(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print("success")</t>
+  </si>
+  <si>
+    <t>del x</t>
+  </si>
+  <si>
+    <t>Khi dùng hàm del thì nó sẽ tìm trong Class Student phương thức __del__ này để gọi</t>
+  </si>
+  <si>
+    <t>Xoá đối tượng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def __str__(self):    </t>
+  </si>
+  <si>
+    <t>print(x)</t>
+  </si>
+  <si>
+    <t>try:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(x)</t>
+  </si>
+  <si>
+    <t>except NameError:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print ("This object is deleted")</t>
+  </si>
+  <si>
+    <t>python3 08_del.py</t>
   </si>
 </sst>
 </file>
@@ -2309,6 +2352,267 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>315820</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>161270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>120953</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>94075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C24BF2-025C-A490-B22E-8214F721100B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1142328" y="17497778"/>
+          <a:ext cx="7243704" cy="940741"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60475</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>67196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>692985</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>47037</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98500081-6819-3D0E-4AF8-46417DA59F34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="886983" y="20427513"/>
+          <a:ext cx="8071081" cy="987778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>241905</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>154550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685397</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>167990</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED508DA-8E0B-E827-0668-DEC81C7B1637}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1894921" y="19305344"/>
+          <a:ext cx="443492" cy="1827725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53757</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>161270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>147831</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>20159</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC07953-039B-B9EA-10B9-DDCA0EB2F55B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="880265" y="18505714"/>
+          <a:ext cx="94074" cy="2479524"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>147831</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>167989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>624921</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>73915</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{099B98DC-691A-15A1-86B4-7662BFB3D776}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="974339" y="16899735"/>
+          <a:ext cx="477090" cy="1317037"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2608,7 +2912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135C1D45-32D7-284A-881C-B1017FDC58F0}">
   <dimension ref="A3:N90"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A63" zoomScale="125" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -8639,8 +8943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9899429-B636-6749-921B-ADDDBAB8E9D9}">
   <dimension ref="A3:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView topLeftCell="A73" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9167,7 +9471,7 @@
       <c r="A48" s="1"/>
       <c r="B48" s="5"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="23" t="s">
+      <c r="D48" t="s">
         <v>145</v>
       </c>
       <c r="E48" s="1"/>
@@ -9475,58 +9779,42 @@
       <c r="B77" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
       <c r="E77" s="16"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" s="15"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
       <c r="E78" s="16"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B79" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
       <c r="E79" s="16"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B80" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
       <c r="E80" s="16"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B81" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
       <c r="E81" s="16"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B82" s="15"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
       <c r="E82" s="16"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B83" s="15"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
       <c r="E83" s="16"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B84" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
       <c r="E84" s="16"/>
       <c r="F84" t="s">
         <v>36</v>
@@ -9539,8 +9827,6 @@
       <c r="B85" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
       <c r="E85" s="16"/>
       <c r="F85" t="s">
         <v>36</v>
@@ -9551,40 +9837,30 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B86" s="15"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
       <c r="E86" s="16"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B87" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
       <c r="E87" s="16"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B88" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
       <c r="E88" s="16"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B89" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
       <c r="E89" s="16"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B90" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
       <c r="E90" s="16"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
@@ -9615,148 +9891,37 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="15"/>
-      <c r="B95" s="24" t="s">
+      <c r="B95" t="s">
         <v>162</v>
       </c>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="24"/>
-      <c r="N95" s="24"/>
-      <c r="O95" s="24"/>
       <c r="P95" s="16"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="24"/>
-      <c r="N96" s="24"/>
-      <c r="O96" s="24"/>
       <c r="P96" s="16"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="24"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
-      <c r="M97" s="24"/>
-      <c r="N97" s="24"/>
-      <c r="O97" s="24"/>
       <c r="P97" s="16"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
-      <c r="N98" s="24"/>
-      <c r="O98" s="24"/>
       <c r="P98" s="16"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="24"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
-      <c r="M99" s="24"/>
-      <c r="N99" s="24"/>
-      <c r="O99" s="24"/>
       <c r="P99" s="16"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="15"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="24"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="24"/>
-      <c r="K100" s="24"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="24"/>
-      <c r="N100" s="24"/>
-      <c r="O100" s="24"/>
       <c r="P100" s="16"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="15"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="24"/>
-      <c r="K101" s="24"/>
-      <c r="L101" s="24"/>
-      <c r="M101" s="24"/>
-      <c r="N101" s="24"/>
-      <c r="O101" s="24"/>
       <c r="P101" s="16"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="15"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="24"/>
-      <c r="N102" s="24"/>
-      <c r="O102" s="24"/>
       <c r="P102" s="16"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
@@ -9781,4 +9946,1203 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108DEF67-2CA8-B646-863F-F8C79FDB5A7A}">
+  <dimension ref="A3:K107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="189" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5"/>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+      <c r="D46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1"/>
+      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1"/>
+      <c r="D55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1"/>
+      <c r="D56" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1"/>
+      <c r="D57" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="5"/>
+      <c r="C71" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="5"/>
+      <c r="C72" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="14"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="16"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="15"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="16"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B80" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="16"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B81" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="16"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B82" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="16"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B83" s="15"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="16"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B84" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="16"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B85" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="16"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B86" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="16"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B87" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="16"/>
+      <c r="I87" t="s">
+        <v>36</v>
+      </c>
+      <c r="J87" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B88" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="16"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B89" s="15"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="16"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B90" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="16"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B91" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="16"/>
+      <c r="I91" t="s">
+        <v>36</v>
+      </c>
+      <c r="J91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B92" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="16"/>
+      <c r="I92" t="s">
+        <v>36</v>
+      </c>
+      <c r="J92" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B93" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="16"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B94" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="16"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B95" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="16"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B96" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="16"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B97" s="17"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="19"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="14"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="15"/>
+      <c r="B101" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="16"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="15"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="16"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="15"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="24"/>
+      <c r="K103" s="16"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="15"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="16"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="15"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="16"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="15"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="16"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="17"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong.xlsx
+++ b/me/1.Lap-trinh-python/8.lap-trinh-huong-doi-tuong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07387429-E5B2-A648-99FF-2E9AAE38B574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377A71DB-AF2A-4347-B91D-2BB4C66D6280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1500" windowWidth="31700" windowHeight="18660" activeTab="7" xr2:uid="{75036E14-3E0C-CA4B-BD00-0CC048259C31}"/>
+    <workbookView xWindow="2220" yWindow="1500" windowWidth="31700" windowHeight="18660" activeTab="8" xr2:uid="{75036E14-3E0C-CA4B-BD00-0CC048259C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Str" sheetId="6" r:id="rId6"/>
     <sheet name="len" sheetId="7" r:id="rId7"/>
     <sheet name="del" sheetId="8" r:id="rId8"/>
+    <sheet name="Exe 15 - class" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="205">
   <si>
     <t>構成</t>
   </si>
@@ -639,6 +640,84 @@
   </si>
   <si>
     <t>python3 08_del.py</t>
+  </si>
+  <si>
+    <t>exe_15_class.py</t>
+  </si>
+  <si>
+    <t>python/exe/exe_15_class.py</t>
+  </si>
+  <si>
+    <t>class Course():</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def __init__(self, name, time, price):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.time = time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        self.price = price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print("Name: {name} - time: {time} - price: {price}".format(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            name    = self.name, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            time    = self.time,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            price   = self.price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return  "Name: {name} - time: {time} - price: {price}".format(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        )</t>
+  </si>
+  <si>
+    <t>listCourses = [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {'name': 'PHP', 'time': 12, 'price': 20},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {'name': 'Django', 'time': 24, 'price': 40}</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>print(listCourses)</t>
+  </si>
+  <si>
+    <t>result = []</t>
+  </si>
+  <si>
+    <t>for course in listCourses:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    result.append(Course(course["name"],course["time"],course["price"]))</t>
+  </si>
+  <si>
+    <t>for courseObj in result:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print(courseObj)</t>
+  </si>
+  <si>
+    <t>python3 exe_15_class.py</t>
+  </si>
+  <si>
+    <t>List chứa các Dictionary</t>
+  </si>
+  <si>
+    <t>List chứa các đối tượng</t>
   </si>
 </sst>
 </file>
@@ -2613,6 +2692,166 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91439</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>92332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>128962</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>19428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{522F2697-316B-07E8-EBCB-046AF56D4F2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914399" y="24069932"/>
+          <a:ext cx="11558963" cy="1552696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>233680</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB124D97-1B67-9034-5DF9-63A5AAE0403F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1056640" y="22931120"/>
+          <a:ext cx="40640" cy="1971040"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>629920</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E624434-D39D-F5AA-063F-C5056E741B0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1463040" y="21295360"/>
+          <a:ext cx="3281680" cy="3423920"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9952,8 +10191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108DEF67-2CA8-B646-863F-F8C79FDB5A7A}">
   <dimension ref="A3:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="189" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView topLeftCell="A53" zoomScale="189" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10490,7 +10729,7 @@
       <c r="A49" s="1"/>
       <c r="B49" s="5"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="23" t="s">
+      <c r="D49" t="s">
         <v>156</v>
       </c>
       <c r="E49" s="1"/>
@@ -10801,106 +11040,56 @@
       <c r="B78" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
       <c r="H78" s="16"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B79" s="15"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
       <c r="H79" s="16"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B80" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
       <c r="H80" s="16"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B81" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
       <c r="H81" s="16"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B82" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
       <c r="H82" s="16"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B83" s="15"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
       <c r="H83" s="16"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B84" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
       <c r="H84" s="16"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B85" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
       <c r="H85" s="16"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B86" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
       <c r="H86" s="16"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B87" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
       <c r="H87" s="16"/>
       <c r="I87" t="s">
         <v>36</v>
@@ -10913,42 +11102,22 @@
       <c r="B88" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
       <c r="H88" s="16"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B89" s="15"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
       <c r="H89" s="16"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B90" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
       <c r="H90" s="16"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B91" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
       <c r="H91" s="16"/>
       <c r="I91" t="s">
         <v>36</v>
@@ -10961,11 +11130,6 @@
       <c r="B92" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
       <c r="H92" s="16"/>
       <c r="I92" t="s">
         <v>36</v>
@@ -10978,44 +11142,24 @@
       <c r="B93" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
       <c r="H93" s="16"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B94" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
       <c r="H94" s="16"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B95" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
       <c r="H95" s="16"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B96" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
       <c r="H96" s="16"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -11026,12 +11170,6 @@
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
       <c r="H97" s="19"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
@@ -11050,82 +11188,29 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="15"/>
-      <c r="B101" s="24" t="s">
+      <c r="B101" t="s">
         <v>178</v>
       </c>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="24"/>
       <c r="K101" s="16"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="15"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
       <c r="K102" s="16"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="15"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="24"/>
-      <c r="I103" s="24"/>
-      <c r="J103" s="24"/>
       <c r="K103" s="16"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="15"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="24"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="24"/>
       <c r="K104" s="16"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="15"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="24"/>
-      <c r="I105" s="24"/>
-      <c r="J105" s="24"/>
       <c r="K105" s="16"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="15"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="24"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="24"/>
       <c r="K106" s="16"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -11145,4 +11230,1424 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238A2DCA-FC2B-A242-881A-943E6FB50F4B}">
+  <dimension ref="A3:P127"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F132" sqref="F132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5"/>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1"/>
+      <c r="D46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1"/>
+      <c r="D49" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1"/>
+      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1"/>
+      <c r="D55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1"/>
+      <c r="D56" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="1"/>
+      <c r="D57" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="5"/>
+      <c r="C71" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="5"/>
+      <c r="C72" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="14"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="16"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B80" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="16"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B81" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="16"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="16"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="16"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B84" s="15"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="16"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B85" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="16"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="16"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B87" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="16"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="16"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="16"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B90" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="16"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="15"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="16"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B92" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="16"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B93" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="16"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B94" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="16"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B95" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="16"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B96" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="16"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B97" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="16"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B98" s="15"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="16"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B99" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I99" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B100" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="16"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B101" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="16"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B102" s="15"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="16"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B103" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="16"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B104" s="15"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="16"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B105" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="16"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B106" s="15"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="16"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B107" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I107" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B108" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="16"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B109" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="16"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B110" s="15"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="16"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B111" s="15"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="16"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B112" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="16"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B113" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="16"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B114" s="17"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="19"/>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A117" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B117" s="13"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="13"/>
+      <c r="K117" s="13"/>
+      <c r="L117" s="13"/>
+      <c r="M117" s="13"/>
+      <c r="N117" s="13"/>
+      <c r="O117" s="13"/>
+      <c r="P117" s="14"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A118" s="15"/>
+      <c r="B118" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="24"/>
+      <c r="M118" s="24"/>
+      <c r="N118" s="24"/>
+      <c r="O118" s="24"/>
+      <c r="P118" s="16"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A119" s="15"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
+      <c r="I119" s="24"/>
+      <c r="J119" s="24"/>
+      <c r="K119" s="24"/>
+      <c r="L119" s="24"/>
+      <c r="M119" s="24"/>
+      <c r="N119" s="24"/>
+      <c r="O119" s="24"/>
+      <c r="P119" s="16"/>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A120" s="15"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="24"/>
+      <c r="L120" s="24"/>
+      <c r="M120" s="24"/>
+      <c r="N120" s="24"/>
+      <c r="O120" s="24"/>
+      <c r="P120" s="16"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A121" s="15"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24"/>
+      <c r="L121" s="24"/>
+      <c r="M121" s="24"/>
+      <c r="N121" s="24"/>
+      <c r="O121" s="24"/>
+      <c r="P121" s="16"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A122" s="15"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
+      <c r="N122" s="24"/>
+      <c r="O122" s="24"/>
+      <c r="P122" s="16"/>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A123" s="15"/>
+      <c r="B123" s="24"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="24"/>
+      <c r="M123" s="24"/>
+      <c r="N123" s="24"/>
+      <c r="O123" s="24"/>
+      <c r="P123" s="16"/>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A124" s="15"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
+      <c r="M124" s="24"/>
+      <c r="N124" s="24"/>
+      <c r="O124" s="24"/>
+      <c r="P124" s="16"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A125" s="15"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="24"/>
+      <c r="J125" s="24"/>
+      <c r="K125" s="24"/>
+      <c r="L125" s="24"/>
+      <c r="M125" s="24"/>
+      <c r="N125" s="24"/>
+      <c r="O125" s="24"/>
+      <c r="P125" s="16"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A126" s="15"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="24"/>
+      <c r="M126" s="24"/>
+      <c r="N126" s="24"/>
+      <c r="O126" s="24"/>
+      <c r="P126" s="16"/>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A127" s="17"/>
+      <c r="B127" s="18"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="18"/>
+      <c r="J127" s="18"/>
+      <c r="K127" s="18"/>
+      <c r="L127" s="18"/>
+      <c r="M127" s="18"/>
+      <c r="N127" s="18"/>
+      <c r="O127" s="18"/>
+      <c r="P127" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>